--- a/src/config/ReservationDetails.xlsx
+++ b/src/config/ReservationDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salemk/Downloads/BookingSelenium/src/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mobarakm/IdeaProjects/Booking/src/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A797892F-01CB-7746-9A2E-B99CAB868575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3EF065-E24C-2140-AB9D-14B82E9E8137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{9E8905D2-0DE4-B842-B676-C2134E568E98}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16280" xr2:uid="{9E8905D2-0DE4-B842-B676-C2134E568E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-05-26</t>
   </si>
   <si>
-    <t>2024-05-31</t>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
